--- a/笔记/database.xlsx
+++ b/笔记/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\94\server94\笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E27903-3B56-461E-953A-0F2A982A241F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EE9095-7398-4080-9624-E17B6A4E90AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2280" yWindow="5220" windowWidth="16476" windowHeight="5064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3996" windowWidth="16476" windowHeight="5064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,18 +38,6 @@
   </si>
   <si>
     <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatarUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fanyoufu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatars/xxxxxxxxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -386,7 +374,7 @@
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,23 +384,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -425,7 +396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84283B8-11BF-4E6D-AE2D-58485248BA95}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
